--- a/settings/data/AtkDependence.xlsx
+++ b/settings/data/AtkDependence.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>string</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>属性依存ID</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
   <si>
     <r>
@@ -180,6 +183,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -192,7 +198,10 @@
     <t>relationship</t>
   </si>
   <si>
-    <t>atkdep_mana_multiply</t>
+    <t>atkdep_marisa_alice_duration</t>
+  </si>
+  <si>
+    <t>魔爱组攻击持续时间的依存</t>
   </si>
   <si>
     <t>mana</t>
@@ -1178,23 +1187,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.8181818181818" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.4545454545455" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.6363636363636" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.0909090909091" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.7272727272727" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="2" max="3" width="25.4545454545455" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6363636363636" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.0909090909091" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.7272727272727" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,13 +1214,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="99" spans="1:5">
+    <row r="2" s="2" customFormat="1" ht="99" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1221,45 +1233,54 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/AtkDependence.xlsx
+++ b/settings/data/AtkDependence.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>string</t>
   </si>
@@ -42,13 +42,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">属性
 </t>
     </r>
@@ -83,7 +76,8 @@
       </rPr>
       <t>time.时间：该攻击自生成开始所经过的时间；
 random.随机：0~1的随机数;
-mana.符力：最近释放的符卡的符力消耗。</t>
+mana.符力：最近释放的符卡的符力消耗;
+number.序数：该攻击在同一次生成的所有攻击中的序数。</t>
     </r>
   </si>
   <si>
@@ -214,6 +208,18 @@
   </si>
   <si>
     <t>multiply</t>
+  </si>
+  <si>
+    <t>atkdep_sakuya_polarangle</t>
+  </si>
+  <si>
+    <t>咲夜攻击初始极角的依存</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>1|0</t>
   </si>
 </sst>
 </file>
@@ -1187,16 +1193,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.8181818181818" style="3" customWidth="1"/>
-    <col min="2" max="3" width="25.4545454545455" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.4545454545455" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39.1818181818182" style="4" customWidth="1"/>
     <col min="4" max="4" width="36.6363636363636" style="4" customWidth="1"/>
     <col min="5" max="5" width="27.0909090909091" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.7272727272727" style="4" customWidth="1"/>
@@ -1267,7 +1274,7 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1280,6 +1287,26 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/settings/data/AtkDependence.xlsx
+++ b/settings/data/AtkDependence.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>string</t>
   </si>
@@ -42,6 +42,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">属性
 </t>
     </r>
@@ -208,18 +215,6 @@
   </si>
   <si>
     <t>multiply</t>
-  </si>
-  <si>
-    <t>atkdep_sakuya_polarangle</t>
-  </si>
-  <si>
-    <t>咲夜攻击初始极角的依存</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>1|0</t>
   </si>
 </sst>
 </file>
@@ -1193,13 +1188,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.8181818181818" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.4545454545455" style="4" customWidth="1"/>
@@ -1290,26 +1285,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
